--- a/data/cleaned_data/final_cleaned/Data_Verweildauer.xlsx
+++ b/data/cleaned_data/final_cleaned/Data_Verweildauer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csb/Desktop/Uni/Streamlit-Application-for-Data-Literacy/data/cleaned_data/final_cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-2/data/cleaned_data/final_cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51B11FCE-4B84-6E40-9428-8C16C68CFAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEA5A6D-45BC-154F-8F35-DA6675D50CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{5DBA4B94-8F8A-0E44-8B37-505FFAEBC664}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{5DBA4B94-8F8A-0E44-8B37-505FFAEBC664}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>1991</t>
   </si>
@@ -134,23 +134,32 @@
     <t>2021</t>
   </si>
   <si>
-    <t>Merkmal_1</t>
-  </si>
-  <si>
     <t>Masseinheit</t>
   </si>
   <si>
     <t>Wert_Belegungstage</t>
   </si>
   <si>
-    <t>Wert_Verweildauer</t>
+    <t>Jahre</t>
+  </si>
+  <si>
+    <t>Verweildauer</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -164,6 +173,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -192,14 +208,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -538,23 +553,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617603BE-AADB-3047-AD13-85923226F38F}">
   <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -994,7 +1009,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>1</v>
@@ -1008,7 +1023,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>1</v>
@@ -1022,7 +1037,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>1</v>
@@ -1035,186 +1050,82 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3691.1889999999999</v>
-      </c>
-      <c r="D36" s="2">
-        <v>7.89</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1171.0730000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>6.89</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>3365.3310000000001</v>
-      </c>
-      <c r="D38" s="2">
-        <v>7.65</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2">
-        <v>8806.8909999999996</v>
-      </c>
-      <c r="D39" s="2">
-        <v>7.28</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2">
-        <v>2464.0619999999999</v>
-      </c>
-      <c r="D40" s="2">
-        <v>6.77</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2">
-        <v>10517.761</v>
-      </c>
-      <c r="D41" s="2">
-        <v>7.09</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2">
-        <v>28659.37</v>
-      </c>
-      <c r="D42" s="2">
-        <v>7.01</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2">
-        <v>5563.88</v>
-      </c>
-      <c r="D43" s="2">
-        <v>6.94</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1635.019</v>
-      </c>
-      <c r="D44" s="2">
-        <v>6.73</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6155.8410000000003</v>
-      </c>
-      <c r="D45" s="2">
-        <v>7.18</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3370.636</v>
-      </c>
-      <c r="D46" s="2">
-        <v>6.85</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4099.3090000000002</v>
-      </c>
-      <c r="D47" s="2">
-        <v>7.9</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3616.6869999999999</v>
-      </c>
-      <c r="D48" s="2">
-        <v>7.28</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
